--- a/[Project]/List_Comprtitions_KK.xlsx
+++ b/[Project]/List_Comprtitions_KK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\[Project]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3E63C3-3300-43D6-AF5C-BE4788D2FE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8498FF-3750-4FC8-A9F7-E142FF618E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24098" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>주최</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,22 @@
   </si>
   <si>
     <t>논문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ygbt.co.kr/competition/view.php?no=42492</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 제23회 통계청 논문 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계청 국가통계연구원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -502,11 +518,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{471CC786-BB36-468A-A1E1-F5914E7895CD}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{3F4C5D49-6BD9-409E-B136-CF8DCDD72140}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{F18BD361-2C46-4EBF-A3A5-989961805554}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
